--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-15.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="433">
   <si>
     <t>League</t>
   </si>
@@ -1207,6 +1207,27 @@
     <t>1.227351791</t>
   </si>
   <si>
+    <t>1.227341613</t>
+  </si>
+  <si>
+    <t>1.227394050</t>
+  </si>
+  <si>
+    <t>1.227420479</t>
+  </si>
+  <si>
+    <t>1.227348417</t>
+  </si>
+  <si>
+    <t>1.227465460</t>
+  </si>
+  <si>
+    <t>1.227381993</t>
+  </si>
+  <si>
+    <t>1.227374979</t>
+  </si>
+  <si>
     <t>1.226954073</t>
   </si>
   <si>
@@ -1238,6 +1259,27 @@
   </si>
   <si>
     <t>1.227352932</t>
+  </si>
+  <si>
+    <t>1.227341538</t>
+  </si>
+  <si>
+    <t>1.227393975</t>
+  </si>
+  <si>
+    <t>1.227420404</t>
+  </si>
+  <si>
+    <t>1.227348342</t>
+  </si>
+  <si>
+    <t>1.227465385</t>
+  </si>
+  <si>
+    <t>1.227381918</t>
+  </si>
+  <si>
+    <t>1.227374904</t>
   </si>
   <si>
     <t>1.226954083</t>
@@ -1848,160 +1890,160 @@
         <v>176</v>
       </c>
       <c r="F2">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="G2">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="J2">
         <v>3.05</v>
       </c>
       <c r="K2">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="L2">
         <v>1.5</v>
       </c>
       <c r="M2">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="N2">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="O2">
         <v>3</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF2" t="s">
         <v>233</v>
@@ -2021,11 +2063,11 @@
       <c r="BK2" t="s">
         <v>340</v>
       </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
+      <c r="BL2" t="s">
+        <v>397</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -2045,160 +2087,160 @@
         <v>177</v>
       </c>
       <c r="F3">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>9.4</v>
       </c>
       <c r="H3">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="I3">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="J3">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>1.7</v>
+      </c>
+      <c r="M3">
+        <v>1.96</v>
+      </c>
+      <c r="N3">
+        <v>2.04</v>
+      </c>
+      <c r="O3">
+        <v>2.44</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>2.7</v>
+      </c>
+      <c r="R3">
+        <v>1.58</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>8.4</v>
+      </c>
+      <c r="U3">
+        <v>14</v>
+      </c>
+      <c r="V3">
+        <v>5.1</v>
+      </c>
+      <c r="W3">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="X3">
         <v>6.2</v>
       </c>
-      <c r="L3">
-        <v>1.46</v>
-      </c>
-      <c r="M3">
-        <v>2.06</v>
-      </c>
-      <c r="N3">
-        <v>1.96</v>
-      </c>
-      <c r="O3">
-        <v>3.15</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
       <c r="Y3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF3" t="s">
         <v>234</v>
@@ -2218,11 +2260,11 @@
       <c r="BK3" t="s">
         <v>341</v>
       </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
+      <c r="BL3" t="s">
+        <v>398</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -2242,19 +2284,19 @@
         <v>178</v>
       </c>
       <c r="F4">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="G4">
         <v>14</v>
       </c>
       <c r="H4">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="I4">
         <v>1000</v>
       </c>
       <c r="J4">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="K4">
         <v>1000</v>
@@ -2272,130 +2314,130 @@
         <v>4.6</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF4" t="s">
         <v>235</v>
@@ -2415,11 +2457,11 @@
       <c r="BK4" t="s">
         <v>342</v>
       </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
+      <c r="BL4" t="s">
+        <v>399</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2439,160 +2481,160 @@
         <v>179</v>
       </c>
       <c r="F5">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="G5">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H5">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I5">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J5">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K5">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="L5">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M5">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="N5">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="O5">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF5" t="s">
         <v>236</v>
@@ -2612,11 +2654,11 @@
       <c r="BK5" t="s">
         <v>343</v>
       </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
+      <c r="BL5" t="s">
+        <v>400</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2636,160 +2678,160 @@
         <v>180</v>
       </c>
       <c r="F6">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H6">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="I6">
         <v>980</v>
       </c>
       <c r="J6">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K6">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="L6">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="M6">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="N6">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="O6">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF6" t="s">
         <v>237</v>
@@ -2809,11 +2851,11 @@
       <c r="BK6" t="s">
         <v>344</v>
       </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
+      <c r="BL6" t="s">
+        <v>401</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2833,13 +2875,13 @@
         <v>181</v>
       </c>
       <c r="F7">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="G7">
         <v>900</v>
       </c>
       <c r="H7">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="I7">
         <v>900</v>
@@ -2863,130 +2905,130 @@
         <v>4.6</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF7" t="s">
         <v>238</v>
@@ -3006,11 +3048,11 @@
       <c r="BK7" t="s">
         <v>345</v>
       </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
+      <c r="BL7" t="s">
+        <v>402</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -3030,160 +3072,160 @@
         <v>182</v>
       </c>
       <c r="F8">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H8">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="I8">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="K8">
         <v>1000</v>
       </c>
       <c r="L8">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M8">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="N8">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF8" t="s">
         <v>239</v>
@@ -3203,11 +3245,11 @@
       <c r="BK8" t="s">
         <v>346</v>
       </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
+      <c r="BL8" t="s">
+        <v>403</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -3424,13 +3466,13 @@
         <v>184</v>
       </c>
       <c r="F10">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="G10">
         <v>900</v>
       </c>
       <c r="H10">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="I10">
         <v>1000</v>
@@ -3621,13 +3663,13 @@
         <v>185</v>
       </c>
       <c r="F11">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="G11">
         <v>900</v>
       </c>
       <c r="H11">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="I11">
         <v>900</v>
@@ -3818,7 +3860,7 @@
         <v>186</v>
       </c>
       <c r="F12">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G12">
         <v>1.98</v>
@@ -3833,13 +3875,13 @@
         <v>3.55</v>
       </c>
       <c r="K12">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L12">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="M12">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="N12">
         <v>2.12</v>
@@ -3848,13 +3890,13 @@
         <v>2.22</v>
       </c>
       <c r="P12">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q12">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R12">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="S12">
         <v>2.04</v>
@@ -3863,13 +3905,13 @@
         <v>11</v>
       </c>
       <c r="U12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V12">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="W12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="X12">
         <v>21</v>
@@ -3878,52 +3920,52 @@
         <v>42</v>
       </c>
       <c r="Z12">
-        <v>9.800000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="AA12">
         <v>130</v>
       </c>
       <c r="AB12">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC12">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD12">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AE12">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AF12">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH12">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI12">
         <v>80</v>
       </c>
       <c r="AJ12">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AK12">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AL12">
         <v>9.800000000000001</v>
       </c>
       <c r="AM12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AN12">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO12">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AP12">
         <v>34</v>
@@ -3932,10 +3974,10 @@
         <v>90</v>
       </c>
       <c r="AR12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS12">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AT12">
         <v>18.5</v>
@@ -3944,31 +3986,31 @@
         <v>27</v>
       </c>
       <c r="AV12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW12">
         <v>55</v>
       </c>
       <c r="AX12">
-        <v>10</v>
+        <v>5.2</v>
       </c>
       <c r="AY12">
         <v>160</v>
       </c>
       <c r="AZ12">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="BA12">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="BB12">
-        <v>9.6</v>
+        <v>5.1</v>
       </c>
       <c r="BC12">
         <v>90</v>
       </c>
       <c r="BD12">
-        <v>10.5</v>
+        <v>5.4</v>
       </c>
       <c r="BE12">
         <v>1000</v>
@@ -3992,10 +4034,10 @@
         <v>350</v>
       </c>
       <c r="BL12" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="BM12" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -4018,31 +4060,31 @@
         <v>2.66</v>
       </c>
       <c r="G13">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="H13">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="I13">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J13">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K13">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="L13">
-        <v>1.2</v>
+        <v>1.69</v>
       </c>
       <c r="M13">
-        <v>1000</v>
+        <v>2.46</v>
       </c>
       <c r="N13">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="O13">
-        <v>6.4</v>
+        <v>2.46</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -4212,34 +4254,34 @@
         <v>188</v>
       </c>
       <c r="F14">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="H14">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="I14">
-        <v>2.54</v>
+        <v>2.74</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K14">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="L14">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M14">
-        <v>2.28</v>
+        <v>2.66</v>
       </c>
       <c r="N14">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="O14">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -4415,13 +4457,13 @@
         <v>11</v>
       </c>
       <c r="H15">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="I15">
         <v>1000</v>
       </c>
       <c r="J15">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="K15">
         <v>1000</v>
@@ -4606,19 +4648,19 @@
         <v>190</v>
       </c>
       <c r="F16">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="G16">
         <v>15.5</v>
       </c>
       <c r="H16">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="I16">
         <v>17.5</v>
       </c>
       <c r="J16">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="K16">
         <v>1000</v>
@@ -4806,31 +4848,31 @@
         <v>2.3</v>
       </c>
       <c r="G17">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="H17">
         <v>2.42</v>
       </c>
       <c r="I17">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="J17">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="K17">
         <v>5.8</v>
       </c>
       <c r="L17">
-        <v>2.16</v>
+        <v>1.92</v>
       </c>
       <c r="M17">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="N17">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="O17">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -5394,16 +5436,16 @@
         <v>194</v>
       </c>
       <c r="F20">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="G20">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H20">
         <v>1.52</v>
       </c>
       <c r="I20">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="J20">
         <v>5.2</v>
@@ -5603,22 +5645,22 @@
         <v>980</v>
       </c>
       <c r="J21">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="K21">
         <v>10</v>
       </c>
       <c r="L21">
-        <v>1.79</v>
+        <v>1.2</v>
       </c>
       <c r="M21">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="N21">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="O21">
-        <v>2.26</v>
+        <v>6.4</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -5791,31 +5833,31 @@
         <v>4.2</v>
       </c>
       <c r="G22">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="H22">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="I22">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J22">
-        <v>3.45</v>
+        <v>1.74</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L22">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="M22">
-        <v>2.84</v>
+        <v>3.5</v>
       </c>
       <c r="N22">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="O22">
-        <v>2.14</v>
+        <v>2.42</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -5985,13 +6027,13 @@
         <v>197</v>
       </c>
       <c r="F23">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G23">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="H23">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I23">
         <v>4.5</v>
@@ -6000,19 +6042,19 @@
         <v>4.3</v>
       </c>
       <c r="K23">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L23">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="M23">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="N23">
         <v>1.27</v>
       </c>
       <c r="O23">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -6182,34 +6224,34 @@
         <v>198</v>
       </c>
       <c r="F24">
+        <v>2.08</v>
+      </c>
+      <c r="G24">
+        <v>2.82</v>
+      </c>
+      <c r="H24">
+        <v>3.35</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>2.9</v>
+      </c>
+      <c r="K24">
+        <v>4.6</v>
+      </c>
+      <c r="L24">
+        <v>1.31</v>
+      </c>
+      <c r="M24">
+        <v>2.04</v>
+      </c>
+      <c r="N24">
         <v>1.96</v>
       </c>
-      <c r="G24">
-        <v>2.9</v>
-      </c>
-      <c r="H24">
-        <v>3.2</v>
-      </c>
-      <c r="I24">
-        <v>7.2</v>
-      </c>
-      <c r="J24">
-        <v>2.88</v>
-      </c>
-      <c r="K24">
-        <v>5.7</v>
-      </c>
-      <c r="L24">
-        <v>1.36</v>
-      </c>
-      <c r="M24">
-        <v>2.18</v>
-      </c>
-      <c r="N24">
-        <v>1.84</v>
-      </c>
       <c r="O24">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -6379,7 +6421,7 @@
         <v>199</v>
       </c>
       <c r="F25">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G25">
         <v>4.1</v>
@@ -6391,7 +6433,7 @@
         <v>2.08</v>
       </c>
       <c r="J25">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K25">
         <v>4.3</v>
@@ -6773,7 +6815,7 @@
         <v>201</v>
       </c>
       <c r="F27">
-        <v>3.6</v>
+        <v>1.04</v>
       </c>
       <c r="G27">
         <v>1000</v>
@@ -6782,25 +6824,25 @@
         <v>1.3</v>
       </c>
       <c r="I27">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="J27">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="K27">
         <v>980</v>
       </c>
       <c r="L27">
-        <v>2.28</v>
+        <v>1.71</v>
       </c>
       <c r="M27">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="N27">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="O27">
-        <v>1.78</v>
+        <v>2.4</v>
       </c>
       <c r="P27">
         <v>1.01</v>
@@ -6947,10 +6989,10 @@
         <v>365</v>
       </c>
       <c r="BL27" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="BM27" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6970,34 +7012,34 @@
         <v>202</v>
       </c>
       <c r="F28">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="G28">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="H28">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="I28">
-        <v>2.74</v>
+        <v>2.96</v>
       </c>
       <c r="J28">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K28">
-        <v>8.800000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="L28">
         <v>1.97</v>
       </c>
       <c r="M28">
-        <v>110</v>
+        <v>2.22</v>
       </c>
       <c r="N28">
         <v>1.83</v>
       </c>
       <c r="O28">
-        <v>13.5</v>
+        <v>2.06</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -7167,34 +7209,34 @@
         <v>203</v>
       </c>
       <c r="F29">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="G29">
-        <v>900</v>
+        <v>14.5</v>
       </c>
       <c r="H29">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="I29">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="J29">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="K29">
-        <v>9.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="L29">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M29">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="N29">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="O29">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -7364,19 +7406,19 @@
         <v>204</v>
       </c>
       <c r="F30">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="G30">
-        <v>980</v>
+        <v>2.9</v>
       </c>
       <c r="H30">
-        <v>1.2</v>
+        <v>2.06</v>
       </c>
       <c r="I30">
-        <v>980</v>
+        <v>3.15</v>
       </c>
       <c r="J30">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="K30">
         <v>980</v>
@@ -7561,34 +7603,34 @@
         <v>205</v>
       </c>
       <c r="F31">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G31">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H31">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="I31">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="J31">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K31">
-        <v>330</v>
+        <v>950</v>
       </c>
       <c r="L31">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="M31">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="N31">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O31">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
       <c r="P31">
         <v>1.01</v>
@@ -7603,7 +7645,7 @@
         <v>1000</v>
       </c>
       <c r="T31">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="U31">
         <v>1000</v>
@@ -7693,7 +7735,7 @@
         <v>1000</v>
       </c>
       <c r="AX31">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="AY31">
         <v>1000</v>
@@ -7735,10 +7777,10 @@
         <v>369</v>
       </c>
       <c r="BL31" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="BM31" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7758,19 +7800,19 @@
         <v>206</v>
       </c>
       <c r="F32">
-        <v>1.04</v>
+        <v>1.18</v>
       </c>
       <c r="G32">
         <v>1000</v>
       </c>
       <c r="H32">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="I32">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="J32">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="K32">
         <v>1000</v>
@@ -8152,34 +8194,34 @@
         <v>208</v>
       </c>
       <c r="F34">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="G34">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H34">
         <v>2.22</v>
       </c>
       <c r="I34">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J34">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K34">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="L34">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="M34">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="N34">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="O34">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -8349,19 +8391,19 @@
         <v>209</v>
       </c>
       <c r="F35">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="G35">
         <v>16</v>
       </c>
       <c r="H35">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="I35">
         <v>16</v>
       </c>
       <c r="J35">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="K35">
         <v>1000</v>
@@ -8546,22 +8588,22 @@
         <v>210</v>
       </c>
       <c r="F36">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="G36">
-        <v>2.48</v>
+        <v>2.82</v>
       </c>
       <c r="H36">
         <v>3.55</v>
       </c>
       <c r="I36">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="J36">
-        <v>3.2</v>
+        <v>2.76</v>
       </c>
       <c r="K36">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="L36">
         <v>1.63</v>
@@ -8949,7 +8991,7 @@
         <v>2.62</v>
       </c>
       <c r="I38">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J38">
         <v>3.05</v>
@@ -8970,127 +9012,127 @@
         <v>2.48</v>
       </c>
       <c r="P38">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="Q38">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="R38">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="S38">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="T38">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="U38">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="V38">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="W38">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="X38">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="Y38">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z38">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AA38">
         <v>1000</v>
       </c>
       <c r="AB38">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="AC38">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD38">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="AE38">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF38">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="AG38">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH38">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AI38">
         <v>1000</v>
       </c>
       <c r="AJ38">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="AK38">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL38">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AM38">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN38">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="AO38">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AP38">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AQ38">
         <v>1000</v>
       </c>
       <c r="AR38">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AS38">
         <v>1000</v>
       </c>
       <c r="AT38">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AU38">
         <v>1000</v>
       </c>
       <c r="AV38">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AW38">
         <v>1000</v>
       </c>
       <c r="AX38">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AY38">
         <v>1000</v>
       </c>
       <c r="AZ38">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="BA38">
         <v>1000</v>
       </c>
       <c r="BB38">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="BC38">
         <v>1000</v>
       </c>
       <c r="BD38">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="BE38">
         <v>1000</v>
@@ -9114,10 +9156,10 @@
         <v>376</v>
       </c>
       <c r="BL38" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="BM38" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:65">
@@ -9146,7 +9188,7 @@
         <v>7.8</v>
       </c>
       <c r="I39">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J39">
         <v>4.9</v>
@@ -9185,43 +9227,43 @@
         <v>18.5</v>
       </c>
       <c r="V39">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="W39">
         <v>32</v>
       </c>
       <c r="X39">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="Y39">
         <v>80</v>
       </c>
       <c r="Z39">
-        <v>11</v>
+        <v>5.6</v>
       </c>
       <c r="AA39">
         <v>280</v>
       </c>
       <c r="AB39">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC39">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD39">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE39">
         <v>11.5</v>
       </c>
       <c r="AF39">
-        <v>9.199999999999999</v>
+        <v>21</v>
       </c>
       <c r="AG39">
         <v>36</v>
       </c>
       <c r="AH39">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="AI39">
         <v>140</v>
@@ -9236,16 +9278,16 @@
         <v>9</v>
       </c>
       <c r="AM39">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AN39">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO39">
         <v>32</v>
       </c>
       <c r="AP39">
-        <v>10.5</v>
+        <v>5.4</v>
       </c>
       <c r="AQ39">
         <v>130</v>
@@ -9254,7 +9296,7 @@
         <v>11.5</v>
       </c>
       <c r="AS39">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AT39">
         <v>13.5</v>
@@ -9263,31 +9305,31 @@
         <v>15</v>
       </c>
       <c r="AV39">
-        <v>9.6</v>
+        <v>5.2</v>
       </c>
       <c r="AW39">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AX39">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="AY39">
         <v>170</v>
       </c>
       <c r="AZ39">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="BA39">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BB39">
-        <v>10.5</v>
+        <v>5.4</v>
       </c>
       <c r="BC39">
         <v>170</v>
       </c>
       <c r="BD39">
-        <v>11</v>
+        <v>5.6</v>
       </c>
       <c r="BE39">
         <v>1000</v>
@@ -9311,10 +9353,10 @@
         <v>377</v>
       </c>
       <c r="BL39" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="BM39" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:65">
@@ -9334,34 +9376,34 @@
         <v>214</v>
       </c>
       <c r="F40">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G40">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="H40">
-        <v>3.5</v>
+        <v>1.26</v>
       </c>
       <c r="I40">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="J40">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K40">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="L40">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="M40">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="N40">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O40">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -10128,7 +10170,7 @@
         <v>2.36</v>
       </c>
       <c r="H44">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I44">
         <v>4</v>
@@ -10140,58 +10182,58 @@
         <v>3.25</v>
       </c>
       <c r="L44">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="M44">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="N44">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="O44">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="P44">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q44">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="R44">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S44">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="T44">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="U44">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="V44">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="W44">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="X44">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="Y44">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z44">
-        <v>8</v>
+        <v>1.76</v>
       </c>
       <c r="AA44">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB44">
         <v>6.6</v>
       </c>
       <c r="AC44">
-        <v>7.2</v>
+        <v>980</v>
       </c>
       <c r="AD44">
         <v>6.6</v>
@@ -10203,76 +10245,76 @@
         <v>16</v>
       </c>
       <c r="AG44">
+        <v>1000</v>
+      </c>
+      <c r="AH44">
+        <v>1.76</v>
+      </c>
+      <c r="AI44">
+        <v>1000</v>
+      </c>
+      <c r="AJ44">
+        <v>10.5</v>
+      </c>
+      <c r="AK44">
+        <v>980</v>
+      </c>
+      <c r="AL44">
+        <v>10.5</v>
+      </c>
+      <c r="AM44">
+        <v>1000</v>
+      </c>
+      <c r="AN44">
         <v>19</v>
       </c>
-      <c r="AH44">
-        <v>30</v>
-      </c>
-      <c r="AI44">
-        <v>80</v>
-      </c>
-      <c r="AJ44">
-        <v>11</v>
-      </c>
-      <c r="AK44">
-        <v>13</v>
-      </c>
-      <c r="AL44">
-        <v>11</v>
-      </c>
-      <c r="AM44">
-        <v>13.5</v>
-      </c>
-      <c r="AN44">
-        <v>21</v>
-      </c>
       <c r="AO44">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AP44">
-        <v>8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ44">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AR44">
         <v>23</v>
       </c>
       <c r="AS44">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AT44">
         <v>21</v>
       </c>
       <c r="AU44">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AV44">
-        <v>32</v>
+        <v>1.76</v>
       </c>
       <c r="AW44">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AX44">
-        <v>8.199999999999999</v>
+        <v>1.76</v>
       </c>
       <c r="AY44">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AZ44">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA44">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="BB44">
-        <v>8</v>
+        <v>1.76</v>
       </c>
       <c r="BC44">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="BD44">
-        <v>8.6</v>
+        <v>1.76</v>
       </c>
       <c r="BE44">
         <v>1000</v>
@@ -10296,10 +10338,10 @@
         <v>382</v>
       </c>
       <c r="BL44" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="BM44" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45" spans="1:65">
@@ -10340,10 +10382,10 @@
         <v>2.6</v>
       </c>
       <c r="M45">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="N45">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O45">
         <v>1.63</v>
@@ -10355,7 +10397,7 @@
         <v>1.65</v>
       </c>
       <c r="R45">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="S45">
         <v>2.64</v>
@@ -10367,7 +10409,7 @@
         <v>24</v>
       </c>
       <c r="V45">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="W45">
         <v>980</v>
@@ -10376,10 +10418,10 @@
         <v>24</v>
       </c>
       <c r="Y45">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="Z45">
-        <v>40</v>
+        <v>4.4</v>
       </c>
       <c r="AA45">
         <v>1000</v>
@@ -10427,7 +10469,7 @@
         <v>15.5</v>
       </c>
       <c r="AP45">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AQ45">
         <v>1000</v>
@@ -10457,10 +10499,10 @@
         <v>75</v>
       </c>
       <c r="AZ45">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="BA45">
-        <v>7.8</v>
+        <v>990</v>
       </c>
       <c r="BB45">
         <v>32</v>
@@ -10469,7 +10511,7 @@
         <v>980</v>
       </c>
       <c r="BD45">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="BE45">
         <v>980</v>
@@ -10493,10 +10535,10 @@
         <v>383</v>
       </c>
       <c r="BL45" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="BM45" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46" spans="1:65">
@@ -10519,7 +10561,7 @@
         <v>2.04</v>
       </c>
       <c r="G46">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H46">
         <v>3.85</v>
@@ -10910,34 +10952,34 @@
         <v>222</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="G48">
         <v>4.4</v>
       </c>
       <c r="H48">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="I48">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="J48">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="K48">
-        <v>9</v>
+        <v>5.1</v>
       </c>
       <c r="L48">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="M48">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="N48">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="O48">
-        <v>3.35</v>
+        <v>2.92</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -11107,34 +11149,34 @@
         <v>223</v>
       </c>
       <c r="F49">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="G49">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="H49">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="I49">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J49">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K49">
         <v>1000</v>
       </c>
       <c r="L49">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="N49">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O49">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -11304,34 +11346,34 @@
         <v>224</v>
       </c>
       <c r="F50">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G50">
-        <v>3.3</v>
+        <v>13.5</v>
       </c>
       <c r="H50">
-        <v>2.76</v>
+        <v>1.94</v>
       </c>
       <c r="I50">
-        <v>5.2</v>
+        <v>13.5</v>
       </c>
       <c r="J50">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K50">
-        <v>6.2</v>
+        <v>19.5</v>
       </c>
       <c r="L50">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M50">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="N50">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="O50">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="P50">
         <v>1.01</v>
@@ -11346,31 +11388,31 @@
         <v>990</v>
       </c>
       <c r="T50">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="U50">
         <v>1000</v>
       </c>
       <c r="V50">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="W50">
         <v>1000</v>
       </c>
       <c r="X50">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="Y50">
         <v>1000</v>
       </c>
       <c r="Z50">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="AA50">
         <v>1000</v>
       </c>
       <c r="AB50">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="AC50">
         <v>1000</v>
@@ -11379,82 +11421,82 @@
         <v>1.01</v>
       </c>
       <c r="AE50">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF50">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="AG50">
         <v>1000</v>
       </c>
       <c r="AH50">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="AI50">
         <v>1000</v>
       </c>
       <c r="AJ50">
-        <v>2.84</v>
+        <v>1.01</v>
       </c>
       <c r="AK50">
         <v>1000</v>
       </c>
       <c r="AL50">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="AM50">
         <v>1000</v>
       </c>
       <c r="AN50">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="AO50">
         <v>1000</v>
       </c>
       <c r="AP50">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="AQ50">
         <v>1000</v>
       </c>
       <c r="AR50">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="AS50">
         <v>1000</v>
       </c>
       <c r="AT50">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="AU50">
         <v>1000</v>
       </c>
       <c r="AV50">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="AW50">
         <v>1000</v>
       </c>
       <c r="AX50">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="AY50">
         <v>1000</v>
       </c>
       <c r="AZ50">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="BA50">
         <v>1000</v>
       </c>
       <c r="BB50">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="BC50">
         <v>1000</v>
       </c>
       <c r="BD50">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="BE50">
         <v>1000</v>
@@ -11478,10 +11520,10 @@
         <v>388</v>
       </c>
       <c r="BL50" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="BM50" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51" spans="1:65">
@@ -11504,7 +11546,7 @@
         <v>3.5</v>
       </c>
       <c r="G51">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="H51">
         <v>2.12</v>
@@ -11513,22 +11555,22 @@
         <v>2.26</v>
       </c>
       <c r="J51">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="K51">
         <v>3.65</v>
       </c>
       <c r="L51">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="M51">
-        <v>2.3</v>
+        <v>980</v>
       </c>
       <c r="N51">
-        <v>1.78</v>
+        <v>1.02</v>
       </c>
       <c r="O51">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="P51">
         <v>1.01</v>
@@ -11543,7 +11585,7 @@
         <v>990</v>
       </c>
       <c r="T51">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="U51">
         <v>1000</v>
@@ -11591,13 +11633,13 @@
         <v>1000</v>
       </c>
       <c r="AJ51">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="AK51">
         <v>1000</v>
       </c>
       <c r="AL51">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="AM51">
         <v>1000</v>
@@ -11627,13 +11669,13 @@
         <v>1000</v>
       </c>
       <c r="AV51">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="AW51">
         <v>1000</v>
       </c>
       <c r="AX51">
-        <v>14</v>
+        <v>1.01</v>
       </c>
       <c r="AY51">
         <v>1000</v>
@@ -11675,10 +11717,10 @@
         <v>389</v>
       </c>
       <c r="BL51" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="BM51" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52" spans="1:65">
@@ -11698,34 +11740,34 @@
         <v>226</v>
       </c>
       <c r="F52">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="G52">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="H52">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="I52">
-        <v>1.92</v>
+        <v>2.34</v>
       </c>
       <c r="J52">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K52">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="L52">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="M52">
-        <v>2.24</v>
+        <v>980</v>
       </c>
       <c r="N52">
-        <v>1.81</v>
+        <v>1.02</v>
       </c>
       <c r="O52">
-        <v>3.15</v>
+        <v>4.6</v>
       </c>
       <c r="P52">
         <v>1.01</v>
@@ -11740,7 +11782,7 @@
         <v>1000</v>
       </c>
       <c r="T52">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="U52">
         <v>1000</v>
@@ -11794,7 +11836,7 @@
         <v>1000</v>
       </c>
       <c r="AL52">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="AM52">
         <v>1000</v>
@@ -11872,10 +11914,10 @@
         <v>390</v>
       </c>
       <c r="BL52" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="BM52" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53" spans="1:65">
@@ -11895,16 +11937,16 @@
         <v>227</v>
       </c>
       <c r="F53">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G53">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H53">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J53">
         <v>2.58</v>
@@ -11913,16 +11955,16 @@
         <v>2.98</v>
       </c>
       <c r="L53">
-        <v>1.54</v>
+        <v>1.27</v>
       </c>
       <c r="M53">
-        <v>1.95</v>
+        <v>3.05</v>
       </c>
       <c r="N53">
-        <v>2.06</v>
+        <v>1.48</v>
       </c>
       <c r="O53">
-        <v>2.84</v>
+        <v>4.6</v>
       </c>
       <c r="P53">
         <v>1.01</v>
@@ -12069,10 +12111,10 @@
         <v>391</v>
       </c>
       <c r="BL53" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="BM53" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="1:65">
@@ -12092,19 +12134,19 @@
         <v>228</v>
       </c>
       <c r="F54">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="G54">
         <v>11.5</v>
       </c>
       <c r="H54">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="I54">
         <v>1000</v>
       </c>
       <c r="J54">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="K54">
         <v>1000</v>
@@ -12289,13 +12331,13 @@
         <v>229</v>
       </c>
       <c r="F55">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="G55">
         <v>1000</v>
       </c>
       <c r="H55">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="I55">
         <v>1000</v>
@@ -12489,31 +12531,31 @@
         <v>1.3</v>
       </c>
       <c r="G56">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="H56">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="I56">
         <v>1000</v>
       </c>
       <c r="J56">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="K56">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="L56">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="M56">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="N56">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="O56">
-        <v>2.42</v>
+        <v>1.99</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -12689,13 +12731,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="H57">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="I57">
         <v>1000</v>
       </c>
       <c r="J57">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="K57">
         <v>1000</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-15.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="266">
   <si>
     <t>League</t>
   </si>
@@ -754,141 +754,6 @@
     <t>Sporting Cristal</t>
   </si>
   <si>
-    <t>33155727</t>
-  </si>
-  <si>
-    <t>33179361</t>
-  </si>
-  <si>
-    <t>33186880</t>
-  </si>
-  <si>
-    <t>33186882</t>
-  </si>
-  <si>
-    <t>33176941</t>
-  </si>
-  <si>
-    <t>33176936</t>
-  </si>
-  <si>
-    <t>33176938</t>
-  </si>
-  <si>
-    <t>33184884</t>
-  </si>
-  <si>
-    <t>33176924</t>
-  </si>
-  <si>
-    <t>33176065</t>
-  </si>
-  <si>
-    <t>33181641</t>
-  </si>
-  <si>
-    <t>33176089</t>
-  </si>
-  <si>
-    <t>33176931</t>
-  </si>
-  <si>
-    <t>33174251</t>
-  </si>
-  <si>
-    <t>33184775</t>
-  </si>
-  <si>
-    <t>33186886</t>
-  </si>
-  <si>
-    <t>33179423</t>
-  </si>
-  <si>
-    <t>33176940</t>
-  </si>
-  <si>
-    <t>33176096</t>
-  </si>
-  <si>
-    <t>33158454</t>
-  </si>
-  <si>
-    <t>33189092</t>
-  </si>
-  <si>
-    <t>33176582</t>
-  </si>
-  <si>
-    <t>33176581</t>
-  </si>
-  <si>
-    <t>33182345</t>
-  </si>
-  <si>
-    <t>33176684</t>
-  </si>
-  <si>
-    <t>33184166</t>
-  </si>
-  <si>
-    <t>33173882</t>
-  </si>
-  <si>
-    <t>33155729</t>
-  </si>
-  <si>
-    <t>33188270</t>
-  </si>
-  <si>
-    <t>33184213</t>
-  </si>
-  <si>
-    <t>33184073</t>
-  </si>
-  <si>
-    <t>33183886</t>
-  </si>
-  <si>
-    <t>33190459</t>
-  </si>
-  <si>
-    <t>33119450</t>
-  </si>
-  <si>
-    <t>33165620</t>
-  </si>
-  <si>
-    <t>33173862</t>
-  </si>
-  <si>
-    <t>33177139</t>
-  </si>
-  <si>
-    <t>33177173</t>
-  </si>
-  <si>
-    <t>33177143</t>
-  </si>
-  <si>
-    <t>33177355</t>
-  </si>
-  <si>
-    <t>33177375</t>
-  </si>
-  <si>
-    <t>33177377</t>
-  </si>
-  <si>
-    <t>33177349</t>
-  </si>
-  <si>
-    <t>33185444</t>
-  </si>
-  <si>
-    <t>33192261</t>
-  </si>
-  <si>
     <t>33177180</t>
   </si>
   <si>
@@ -901,141 +766,6 @@
     <t>33177134</t>
   </si>
   <si>
-    <t>1.226954074</t>
-  </si>
-  <si>
-    <t>1.227387636</t>
-  </si>
-  <si>
-    <t>1.227502879</t>
-  </si>
-  <si>
-    <t>1.227502789</t>
-  </si>
-  <si>
-    <t>1.227347973</t>
-  </si>
-  <si>
-    <t>1.227348153</t>
-  </si>
-  <si>
-    <t>1.227348063</t>
-  </si>
-  <si>
-    <t>1.227467121</t>
-  </si>
-  <si>
-    <t>1.227348588</t>
-  </si>
-  <si>
-    <t>1.227333101</t>
-  </si>
-  <si>
-    <t>1.227422606</t>
-  </si>
-  <si>
-    <t>1.227332885</t>
-  </si>
-  <si>
-    <t>1.227348243</t>
-  </si>
-  <si>
-    <t>1.227298316</t>
-  </si>
-  <si>
-    <t>1.227465286</t>
-  </si>
-  <si>
-    <t>1.227503365</t>
-  </si>
-  <si>
-    <t>1.227388547</t>
-  </si>
-  <si>
-    <t>1.227348618</t>
-  </si>
-  <si>
-    <t>1.227332560</t>
-  </si>
-  <si>
-    <t>1.227009539</t>
-  </si>
-  <si>
-    <t>1.227539729</t>
-  </si>
-  <si>
-    <t>1.227341889</t>
-  </si>
-  <si>
-    <t>1.227342069</t>
-  </si>
-  <si>
-    <t>1.227430626</t>
-  </si>
-  <si>
-    <t>1.227345746</t>
-  </si>
-  <si>
-    <t>1.227456152</t>
-  </si>
-  <si>
-    <t>1.227289071</t>
-  </si>
-  <si>
-    <t>1.226953834</t>
-  </si>
-  <si>
-    <t>1.227522774</t>
-  </si>
-  <si>
-    <t>1.227456657</t>
-  </si>
-  <si>
-    <t>1.227452900</t>
-  </si>
-  <si>
-    <t>1.227452990</t>
-  </si>
-  <si>
-    <t>1.227563488</t>
-  </si>
-  <si>
-    <t>1.226338046</t>
-  </si>
-  <si>
-    <t>1.227123926</t>
-  </si>
-  <si>
-    <t>1.227288678</t>
-  </si>
-  <si>
-    <t>1.227351296</t>
-  </si>
-  <si>
-    <t>1.227351386</t>
-  </si>
-  <si>
-    <t>1.227351476</t>
-  </si>
-  <si>
-    <t>1.227352758</t>
-  </si>
-  <si>
-    <t>1.227352978</t>
-  </si>
-  <si>
-    <t>1.227354435</t>
-  </si>
-  <si>
-    <t>1.227352848</t>
-  </si>
-  <si>
-    <t>1.227477194</t>
-  </si>
-  <si>
-    <t>1.227596225</t>
-  </si>
-  <si>
     <t>1.227351566</t>
   </si>
   <si>
@@ -1048,141 +778,6 @@
     <t>1.227351746</t>
   </si>
   <si>
-    <t>1.226954058</t>
-  </si>
-  <si>
-    <t>1.227387681</t>
-  </si>
-  <si>
-    <t>1.227502924</t>
-  </si>
-  <si>
-    <t>1.227502834</t>
-  </si>
-  <si>
-    <t>1.227348018</t>
-  </si>
-  <si>
-    <t>1.227348198</t>
-  </si>
-  <si>
-    <t>1.227348108</t>
-  </si>
-  <si>
-    <t>1.227467166</t>
-  </si>
-  <si>
-    <t>1.227348598</t>
-  </si>
-  <si>
-    <t>1.227333111</t>
-  </si>
-  <si>
-    <t>1.227422651</t>
-  </si>
-  <si>
-    <t>1.227332895</t>
-  </si>
-  <si>
-    <t>1.227348288</t>
-  </si>
-  <si>
-    <t>1.227298326</t>
-  </si>
-  <si>
-    <t>1.227465331</t>
-  </si>
-  <si>
-    <t>1.227503410</t>
-  </si>
-  <si>
-    <t>1.227388592</t>
-  </si>
-  <si>
-    <t>1.227348621</t>
-  </si>
-  <si>
-    <t>1.227332570</t>
-  </si>
-  <si>
-    <t>1.227009584</t>
-  </si>
-  <si>
-    <t>1.227539774</t>
-  </si>
-  <si>
-    <t>1.227341934</t>
-  </si>
-  <si>
-    <t>1.227342114</t>
-  </si>
-  <si>
-    <t>1.227430671</t>
-  </si>
-  <si>
-    <t>1.227345791</t>
-  </si>
-  <si>
-    <t>1.227456197</t>
-  </si>
-  <si>
-    <t>1.227289116</t>
-  </si>
-  <si>
-    <t>1.226953818</t>
-  </si>
-  <si>
-    <t>1.227522819</t>
-  </si>
-  <si>
-    <t>1.227456705</t>
-  </si>
-  <si>
-    <t>1.227452945</t>
-  </si>
-  <si>
-    <t>1.227453035</t>
-  </si>
-  <si>
-    <t>1.227563533</t>
-  </si>
-  <si>
-    <t>1.226338030</t>
-  </si>
-  <si>
-    <t>1.227123865</t>
-  </si>
-  <si>
-    <t>1.227288688</t>
-  </si>
-  <si>
-    <t>1.227351341</t>
-  </si>
-  <si>
-    <t>1.227351431</t>
-  </si>
-  <si>
-    <t>1.227351521</t>
-  </si>
-  <si>
-    <t>1.227352803</t>
-  </si>
-  <si>
-    <t>1.227353023</t>
-  </si>
-  <si>
-    <t>1.227354480</t>
-  </si>
-  <si>
-    <t>1.227352893</t>
-  </si>
-  <si>
-    <t>1.227477239</t>
-  </si>
-  <si>
-    <t>1.227596228</t>
-  </si>
-  <si>
     <t>1.227351611</t>
   </si>
   <si>
@@ -1195,141 +790,6 @@
     <t>1.227351791</t>
   </si>
   <si>
-    <t>1.226954073</t>
-  </si>
-  <si>
-    <t>1.227387720</t>
-  </si>
-  <si>
-    <t>1.227502963</t>
-  </si>
-  <si>
-    <t>1.227502873</t>
-  </si>
-  <si>
-    <t>1.227348057</t>
-  </si>
-  <si>
-    <t>1.227348237</t>
-  </si>
-  <si>
-    <t>1.227348147</t>
-  </si>
-  <si>
-    <t>1.227467205</t>
-  </si>
-  <si>
-    <t>1.227348587</t>
-  </si>
-  <si>
-    <t>1.227333100</t>
-  </si>
-  <si>
-    <t>1.227422690</t>
-  </si>
-  <si>
-    <t>1.227332884</t>
-  </si>
-  <si>
-    <t>1.227348327</t>
-  </si>
-  <si>
-    <t>1.227298315</t>
-  </si>
-  <si>
-    <t>1.227465370</t>
-  </si>
-  <si>
-    <t>1.227503449</t>
-  </si>
-  <si>
-    <t>1.227388631</t>
-  </si>
-  <si>
-    <t>1.227348665</t>
-  </si>
-  <si>
-    <t>1.227332559</t>
-  </si>
-  <si>
-    <t>1.227009623</t>
-  </si>
-  <si>
-    <t>1.227539813</t>
-  </si>
-  <si>
-    <t>1.227341973</t>
-  </si>
-  <si>
-    <t>1.227342153</t>
-  </si>
-  <si>
-    <t>1.227430710</t>
-  </si>
-  <si>
-    <t>1.227345830</t>
-  </si>
-  <si>
-    <t>1.227456236</t>
-  </si>
-  <si>
-    <t>1.227289155</t>
-  </si>
-  <si>
-    <t>1.226953833</t>
-  </si>
-  <si>
-    <t>1.227522858</t>
-  </si>
-  <si>
-    <t>1.227456744</t>
-  </si>
-  <si>
-    <t>1.227452984</t>
-  </si>
-  <si>
-    <t>1.227453074</t>
-  </si>
-  <si>
-    <t>1.227563572</t>
-  </si>
-  <si>
-    <t>1.226338045</t>
-  </si>
-  <si>
-    <t>1.227123925</t>
-  </si>
-  <si>
-    <t>1.227288677</t>
-  </si>
-  <si>
-    <t>1.227351380</t>
-  </si>
-  <si>
-    <t>1.227351470</t>
-  </si>
-  <si>
-    <t>1.227351560</t>
-  </si>
-  <si>
-    <t>1.227352842</t>
-  </si>
-  <si>
-    <t>1.227353062</t>
-  </si>
-  <si>
-    <t>1.227354519</t>
-  </si>
-  <si>
-    <t>1.227352932</t>
-  </si>
-  <si>
-    <t>1.227477278</t>
-  </si>
-  <si>
-    <t>1.227596272</t>
-  </si>
-  <si>
     <t>1.227351650</t>
   </si>
   <si>
@@ -1340,141 +800,6 @@
   </si>
   <si>
     <t>1.227351830</t>
-  </si>
-  <si>
-    <t>1.226954083</t>
-  </si>
-  <si>
-    <t>1.227387645</t>
-  </si>
-  <si>
-    <t>1.227502888</t>
-  </si>
-  <si>
-    <t>1.227502798</t>
-  </si>
-  <si>
-    <t>1.227347982</t>
-  </si>
-  <si>
-    <t>1.227348162</t>
-  </si>
-  <si>
-    <t>1.227348072</t>
-  </si>
-  <si>
-    <t>1.227467130</t>
-  </si>
-  <si>
-    <t>1.227348597</t>
-  </si>
-  <si>
-    <t>1.227333110</t>
-  </si>
-  <si>
-    <t>1.227422615</t>
-  </si>
-  <si>
-    <t>1.227332894</t>
-  </si>
-  <si>
-    <t>1.227348252</t>
-  </si>
-  <si>
-    <t>1.227298325</t>
-  </si>
-  <si>
-    <t>1.227465295</t>
-  </si>
-  <si>
-    <t>1.227503374</t>
-  </si>
-  <si>
-    <t>1.227388556</t>
-  </si>
-  <si>
-    <t>1.227348666</t>
-  </si>
-  <si>
-    <t>1.227332569</t>
-  </si>
-  <si>
-    <t>1.227009548</t>
-  </si>
-  <si>
-    <t>1.227539738</t>
-  </si>
-  <si>
-    <t>1.227341898</t>
-  </si>
-  <si>
-    <t>1.227342078</t>
-  </si>
-  <si>
-    <t>1.227430635</t>
-  </si>
-  <si>
-    <t>1.227345755</t>
-  </si>
-  <si>
-    <t>1.227456161</t>
-  </si>
-  <si>
-    <t>1.227289080</t>
-  </si>
-  <si>
-    <t>1.226953843</t>
-  </si>
-  <si>
-    <t>1.227522783</t>
-  </si>
-  <si>
-    <t>1.227456668</t>
-  </si>
-  <si>
-    <t>1.227452909</t>
-  </si>
-  <si>
-    <t>1.227452999</t>
-  </si>
-  <si>
-    <t>1.227563497</t>
-  </si>
-  <si>
-    <t>1.226338055</t>
-  </si>
-  <si>
-    <t>1.227123936</t>
-  </si>
-  <si>
-    <t>1.227288687</t>
-  </si>
-  <si>
-    <t>1.227351305</t>
-  </si>
-  <si>
-    <t>1.227351395</t>
-  </si>
-  <si>
-    <t>1.227351485</t>
-  </si>
-  <si>
-    <t>1.227352767</t>
-  </si>
-  <si>
-    <t>1.227352987</t>
-  </si>
-  <si>
-    <t>1.227354444</t>
-  </si>
-  <si>
-    <t>1.227352857</t>
-  </si>
-  <si>
-    <t>1.227477203</t>
-  </si>
-  <si>
-    <t>1.227596273</t>
   </si>
   <si>
     <t>1.227351575</t>
@@ -4583,8 +3908,8 @@
       <c r="BE14">
         <v>1000</v>
       </c>
-      <c r="BF14" t="s">
-        <v>246</v>
+      <c r="BF14">
+        <v>33155727</v>
       </c>
       <c r="BG14">
         <v>676467</v>
@@ -4595,17 +3920,17 @@
       <c r="BI14">
         <v>58805</v>
       </c>
-      <c r="BJ14" t="s">
-        <v>295</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>344</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>393</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>442</v>
+      <c r="BJ14">
+        <v>1.226954074</v>
+      </c>
+      <c r="BK14">
+        <v>1.226954058</v>
+      </c>
+      <c r="BL14">
+        <v>1.226954073</v>
+      </c>
+      <c r="BM14">
+        <v>1.226954083</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4780,8 +4105,8 @@
       <c r="BE15">
         <v>1000</v>
       </c>
-      <c r="BF15" t="s">
-        <v>247</v>
+      <c r="BF15">
+        <v>33179361</v>
       </c>
       <c r="BG15">
         <v>70468</v>
@@ -4792,17 +4117,17 @@
       <c r="BI15">
         <v>58805</v>
       </c>
-      <c r="BJ15" t="s">
-        <v>296</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>345</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>394</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>443</v>
+      <c r="BJ15">
+        <v>1.227387636</v>
+      </c>
+      <c r="BK15">
+        <v>1.227387681</v>
+      </c>
+      <c r="BL15">
+        <v>1.22738772</v>
+      </c>
+      <c r="BM15">
+        <v>1.227387645</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4977,8 +4302,8 @@
       <c r="BE16">
         <v>1000</v>
       </c>
-      <c r="BF16" t="s">
-        <v>248</v>
+      <c r="BF16">
+        <v>33186880</v>
       </c>
       <c r="BG16">
         <v>774892</v>
@@ -4989,17 +4314,17 @@
       <c r="BI16">
         <v>58805</v>
       </c>
-      <c r="BJ16" t="s">
-        <v>297</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>346</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>395</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>444</v>
+      <c r="BJ16">
+        <v>1.227502879</v>
+      </c>
+      <c r="BK16">
+        <v>1.227502924</v>
+      </c>
+      <c r="BL16">
+        <v>1.227502963</v>
+      </c>
+      <c r="BM16">
+        <v>1.227502888</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -5174,8 +4499,8 @@
       <c r="BE17">
         <v>980</v>
       </c>
-      <c r="BF17" t="s">
-        <v>249</v>
+      <c r="BF17">
+        <v>33186882</v>
       </c>
       <c r="BG17">
         <v>3782270</v>
@@ -5186,17 +4511,17 @@
       <c r="BI17">
         <v>58805</v>
       </c>
-      <c r="BJ17" t="s">
-        <v>298</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>347</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>396</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>445</v>
+      <c r="BJ17">
+        <v>1.227502789</v>
+      </c>
+      <c r="BK17">
+        <v>1.227502834</v>
+      </c>
+      <c r="BL17">
+        <v>1.227502873</v>
+      </c>
+      <c r="BM17">
+        <v>1.227502798</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -5371,8 +4696,8 @@
       <c r="BE18">
         <v>980</v>
       </c>
-      <c r="BF18" t="s">
-        <v>250</v>
+      <c r="BF18">
+        <v>33176941</v>
       </c>
       <c r="BG18">
         <v>401947</v>
@@ -5383,17 +4708,17 @@
       <c r="BI18">
         <v>58805</v>
       </c>
-      <c r="BJ18" t="s">
-        <v>299</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>348</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>397</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>446</v>
+      <c r="BJ18">
+        <v>1.227347973</v>
+      </c>
+      <c r="BK18">
+        <v>1.227348018</v>
+      </c>
+      <c r="BL18">
+        <v>1.227348057</v>
+      </c>
+      <c r="BM18">
+        <v>1.227347982</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -5568,8 +4893,8 @@
       <c r="BE19">
         <v>1000</v>
       </c>
-      <c r="BF19" t="s">
-        <v>251</v>
+      <c r="BF19">
+        <v>33176936</v>
       </c>
       <c r="BG19">
         <v>778909</v>
@@ -5580,17 +4905,17 @@
       <c r="BI19">
         <v>58805</v>
       </c>
-      <c r="BJ19" t="s">
-        <v>300</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>349</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>398</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>447</v>
+      <c r="BJ19">
+        <v>1.227348153</v>
+      </c>
+      <c r="BK19">
+        <v>1.227348198</v>
+      </c>
+      <c r="BL19">
+        <v>1.227348237</v>
+      </c>
+      <c r="BM19">
+        <v>1.227348162</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5765,8 +5090,8 @@
       <c r="BE20">
         <v>980</v>
       </c>
-      <c r="BF20" t="s">
-        <v>252</v>
+      <c r="BF20">
+        <v>33176938</v>
       </c>
       <c r="BG20">
         <v>152573</v>
@@ -5777,17 +5102,17 @@
       <c r="BI20">
         <v>58805</v>
       </c>
-      <c r="BJ20" t="s">
-        <v>301</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>350</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>399</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>448</v>
+      <c r="BJ20">
+        <v>1.227348063</v>
+      </c>
+      <c r="BK20">
+        <v>1.227348108</v>
+      </c>
+      <c r="BL20">
+        <v>1.227348147</v>
+      </c>
+      <c r="BM20">
+        <v>1.227348072</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5962,8 +5287,8 @@
       <c r="BE21">
         <v>1000</v>
       </c>
-      <c r="BF21" t="s">
-        <v>253</v>
+      <c r="BF21">
+        <v>33184884</v>
       </c>
       <c r="BG21">
         <v>5174134</v>
@@ -5974,17 +5299,17 @@
       <c r="BI21">
         <v>58805</v>
       </c>
-      <c r="BJ21" t="s">
-        <v>302</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>351</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>400</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>449</v>
+      <c r="BJ21">
+        <v>1.227467121</v>
+      </c>
+      <c r="BK21">
+        <v>1.227467166</v>
+      </c>
+      <c r="BL21">
+        <v>1.227467205</v>
+      </c>
+      <c r="BM21">
+        <v>1.22746713</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -6159,8 +5484,8 @@
       <c r="BE22">
         <v>980</v>
       </c>
-      <c r="BF22" t="s">
-        <v>254</v>
+      <c r="BF22">
+        <v>33176924</v>
       </c>
       <c r="BG22">
         <v>2080777</v>
@@ -6171,17 +5496,17 @@
       <c r="BI22">
         <v>58805</v>
       </c>
-      <c r="BJ22" t="s">
-        <v>303</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>352</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>401</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>450</v>
+      <c r="BJ22">
+        <v>1.227348588</v>
+      </c>
+      <c r="BK22">
+        <v>1.227348598</v>
+      </c>
+      <c r="BL22">
+        <v>1.227348587</v>
+      </c>
+      <c r="BM22">
+        <v>1.227348597</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -6356,8 +5681,8 @@
       <c r="BE23">
         <v>1000</v>
       </c>
-      <c r="BF23" t="s">
-        <v>255</v>
+      <c r="BF23">
+        <v>33176065</v>
       </c>
       <c r="BG23">
         <v>384107</v>
@@ -6368,17 +5693,17 @@
       <c r="BI23">
         <v>58805</v>
       </c>
-      <c r="BJ23" t="s">
-        <v>304</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>353</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>402</v>
-      </c>
-      <c r="BM23" t="s">
-        <v>451</v>
+      <c r="BJ23">
+        <v>1.227333101</v>
+      </c>
+      <c r="BK23">
+        <v>1.227333111</v>
+      </c>
+      <c r="BL23">
+        <v>1.2273331</v>
+      </c>
+      <c r="BM23">
+        <v>1.22733311</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -6553,8 +5878,8 @@
       <c r="BE24">
         <v>980</v>
       </c>
-      <c r="BF24" t="s">
-        <v>256</v>
+      <c r="BF24">
+        <v>33181641</v>
       </c>
       <c r="BG24">
         <v>151470</v>
@@ -6565,17 +5890,17 @@
       <c r="BI24">
         <v>58805</v>
       </c>
-      <c r="BJ24" t="s">
-        <v>305</v>
-      </c>
-      <c r="BK24" t="s">
-        <v>354</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>403</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>452</v>
+      <c r="BJ24">
+        <v>1.227422606</v>
+      </c>
+      <c r="BK24">
+        <v>1.227422651</v>
+      </c>
+      <c r="BL24">
+        <v>1.22742269</v>
+      </c>
+      <c r="BM24">
+        <v>1.227422615</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6750,8 +6075,8 @@
       <c r="BE25">
         <v>980</v>
       </c>
-      <c r="BF25" t="s">
-        <v>257</v>
+      <c r="BF25">
+        <v>33176089</v>
       </c>
       <c r="BG25">
         <v>30681</v>
@@ -6762,17 +6087,17 @@
       <c r="BI25">
         <v>58805</v>
       </c>
-      <c r="BJ25" t="s">
-        <v>306</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>355</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>404</v>
-      </c>
-      <c r="BM25" t="s">
-        <v>453</v>
+      <c r="BJ25">
+        <v>1.227332885</v>
+      </c>
+      <c r="BK25">
+        <v>1.227332895</v>
+      </c>
+      <c r="BL25">
+        <v>1.227332884</v>
+      </c>
+      <c r="BM25">
+        <v>1.227332894</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6947,8 +6272,8 @@
       <c r="BE26">
         <v>1000</v>
       </c>
-      <c r="BF26" t="s">
-        <v>258</v>
+      <c r="BF26">
+        <v>33176931</v>
       </c>
       <c r="BG26">
         <v>3157365</v>
@@ -6959,17 +6284,17 @@
       <c r="BI26">
         <v>58805</v>
       </c>
-      <c r="BJ26" t="s">
-        <v>307</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>356</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>405</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>454</v>
+      <c r="BJ26">
+        <v>1.227348243</v>
+      </c>
+      <c r="BK26">
+        <v>1.227348288</v>
+      </c>
+      <c r="BL26">
+        <v>1.227348327</v>
+      </c>
+      <c r="BM26">
+        <v>1.227348252</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -7144,8 +6469,8 @@
       <c r="BE27">
         <v>980</v>
       </c>
-      <c r="BF27" t="s">
-        <v>259</v>
+      <c r="BF27">
+        <v>33174251</v>
       </c>
       <c r="BG27">
         <v>28216</v>
@@ -7156,17 +6481,17 @@
       <c r="BI27">
         <v>58805</v>
       </c>
-      <c r="BJ27" t="s">
-        <v>308</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>357</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>406</v>
-      </c>
-      <c r="BM27" t="s">
-        <v>455</v>
+      <c r="BJ27">
+        <v>1.227298316</v>
+      </c>
+      <c r="BK27">
+        <v>1.227298326</v>
+      </c>
+      <c r="BL27">
+        <v>1.227298315</v>
+      </c>
+      <c r="BM27">
+        <v>1.227298325</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -7341,8 +6666,8 @@
       <c r="BE28">
         <v>1000</v>
       </c>
-      <c r="BF28" t="s">
-        <v>260</v>
+      <c r="BF28">
+        <v>33184775</v>
       </c>
       <c r="BG28">
         <v>5112599</v>
@@ -7353,17 +6678,17 @@
       <c r="BI28">
         <v>58805</v>
       </c>
-      <c r="BJ28" t="s">
-        <v>309</v>
-      </c>
-      <c r="BK28" t="s">
-        <v>358</v>
-      </c>
-      <c r="BL28" t="s">
-        <v>407</v>
-      </c>
-      <c r="BM28" t="s">
-        <v>456</v>
+      <c r="BJ28">
+        <v>1.227465286</v>
+      </c>
+      <c r="BK28">
+        <v>1.227465331</v>
+      </c>
+      <c r="BL28">
+        <v>1.22746537</v>
+      </c>
+      <c r="BM28">
+        <v>1.227465295</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -7538,8 +6863,8 @@
       <c r="BE29">
         <v>1000</v>
       </c>
-      <c r="BF29" t="s">
-        <v>261</v>
+      <c r="BF29">
+        <v>33186886</v>
       </c>
       <c r="BG29">
         <v>3038746</v>
@@ -7550,17 +6875,17 @@
       <c r="BI29">
         <v>58805</v>
       </c>
-      <c r="BJ29" t="s">
-        <v>310</v>
-      </c>
-      <c r="BK29" t="s">
-        <v>359</v>
-      </c>
-      <c r="BL29" t="s">
-        <v>408</v>
-      </c>
-      <c r="BM29" t="s">
-        <v>457</v>
+      <c r="BJ29">
+        <v>1.227503365</v>
+      </c>
+      <c r="BK29">
+        <v>1.22750341</v>
+      </c>
+      <c r="BL29">
+        <v>1.227503449</v>
+      </c>
+      <c r="BM29">
+        <v>1.227503374</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7735,8 +7060,8 @@
       <c r="BE30">
         <v>980</v>
       </c>
-      <c r="BF30" t="s">
-        <v>262</v>
+      <c r="BF30">
+        <v>33179423</v>
       </c>
       <c r="BG30">
         <v>30686</v>
@@ -7747,17 +7072,17 @@
       <c r="BI30">
         <v>58805</v>
       </c>
-      <c r="BJ30" t="s">
-        <v>311</v>
-      </c>
-      <c r="BK30" t="s">
-        <v>360</v>
-      </c>
-      <c r="BL30" t="s">
-        <v>409</v>
-      </c>
-      <c r="BM30" t="s">
-        <v>458</v>
+      <c r="BJ30">
+        <v>1.227388547</v>
+      </c>
+      <c r="BK30">
+        <v>1.227388592</v>
+      </c>
+      <c r="BL30">
+        <v>1.227388631</v>
+      </c>
+      <c r="BM30">
+        <v>1.227388556</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7932,8 +7257,8 @@
       <c r="BE31">
         <v>1000</v>
       </c>
-      <c r="BF31" t="s">
-        <v>263</v>
+      <c r="BF31">
+        <v>33176940</v>
       </c>
       <c r="BG31">
         <v>114383</v>
@@ -7944,17 +7269,17 @@
       <c r="BI31">
         <v>58805</v>
       </c>
-      <c r="BJ31" t="s">
-        <v>312</v>
-      </c>
-      <c r="BK31" t="s">
-        <v>361</v>
-      </c>
-      <c r="BL31" t="s">
-        <v>410</v>
-      </c>
-      <c r="BM31" t="s">
-        <v>459</v>
+      <c r="BJ31">
+        <v>1.227348618</v>
+      </c>
+      <c r="BK31">
+        <v>1.227348621</v>
+      </c>
+      <c r="BL31">
+        <v>1.227348665</v>
+      </c>
+      <c r="BM31">
+        <v>1.227348666</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -8129,8 +7454,8 @@
       <c r="BE32">
         <v>980</v>
       </c>
-      <c r="BF32" t="s">
-        <v>264</v>
+      <c r="BF32">
+        <v>33176096</v>
       </c>
       <c r="BG32">
         <v>30679</v>
@@ -8141,17 +7466,17 @@
       <c r="BI32">
         <v>58805</v>
       </c>
-      <c r="BJ32" t="s">
-        <v>313</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>362</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>411</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>460</v>
+      <c r="BJ32">
+        <v>1.22733256</v>
+      </c>
+      <c r="BK32">
+        <v>1.22733257</v>
+      </c>
+      <c r="BL32">
+        <v>1.227332559</v>
+      </c>
+      <c r="BM32">
+        <v>1.227332569</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -8326,8 +7651,8 @@
       <c r="BE33">
         <v>1000</v>
       </c>
-      <c r="BF33" t="s">
-        <v>265</v>
+      <c r="BF33">
+        <v>33158454</v>
       </c>
       <c r="BG33">
         <v>6394</v>
@@ -8338,17 +7663,17 @@
       <c r="BI33">
         <v>58805</v>
       </c>
-      <c r="BJ33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>363</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>412</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>461</v>
+      <c r="BJ33">
+        <v>1.227009539</v>
+      </c>
+      <c r="BK33">
+        <v>1.227009584</v>
+      </c>
+      <c r="BL33">
+        <v>1.227009623</v>
+      </c>
+      <c r="BM33">
+        <v>1.227009548</v>
       </c>
     </row>
     <row r="34" spans="1:65">
@@ -8523,8 +7848,8 @@
       <c r="BE34">
         <v>1000</v>
       </c>
-      <c r="BF34" t="s">
-        <v>266</v>
+      <c r="BF34">
+        <v>33189092</v>
       </c>
       <c r="BG34">
         <v>364670</v>
@@ -8535,17 +7860,17 @@
       <c r="BI34">
         <v>58805</v>
       </c>
-      <c r="BJ34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>364</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>413</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>462</v>
+      <c r="BJ34">
+        <v>1.227539729</v>
+      </c>
+      <c r="BK34">
+        <v>1.227539774</v>
+      </c>
+      <c r="BL34">
+        <v>1.227539813</v>
+      </c>
+      <c r="BM34">
+        <v>1.227539738</v>
       </c>
     </row>
     <row r="35" spans="1:65">
@@ -8720,8 +8045,8 @@
       <c r="BE35">
         <v>980</v>
       </c>
-      <c r="BF35" t="s">
-        <v>267</v>
+      <c r="BF35">
+        <v>33176582</v>
       </c>
       <c r="BG35">
         <v>11378686</v>
@@ -8732,17 +8057,17 @@
       <c r="BI35">
         <v>58805</v>
       </c>
-      <c r="BJ35" t="s">
-        <v>316</v>
-      </c>
-      <c r="BK35" t="s">
-        <v>365</v>
-      </c>
-      <c r="BL35" t="s">
-        <v>414</v>
-      </c>
-      <c r="BM35" t="s">
-        <v>463</v>
+      <c r="BJ35">
+        <v>1.227341889</v>
+      </c>
+      <c r="BK35">
+        <v>1.227341934</v>
+      </c>
+      <c r="BL35">
+        <v>1.227341973</v>
+      </c>
+      <c r="BM35">
+        <v>1.227341898</v>
       </c>
     </row>
     <row r="36" spans="1:65">
@@ -8917,8 +8242,8 @@
       <c r="BE36">
         <v>980</v>
       </c>
-      <c r="BF36" t="s">
-        <v>268</v>
+      <c r="BF36">
+        <v>33176581</v>
       </c>
       <c r="BG36">
         <v>10698710</v>
@@ -8929,17 +8254,17 @@
       <c r="BI36">
         <v>58805</v>
       </c>
-      <c r="BJ36" t="s">
-        <v>317</v>
-      </c>
-      <c r="BK36" t="s">
-        <v>366</v>
-      </c>
-      <c r="BL36" t="s">
-        <v>415</v>
-      </c>
-      <c r="BM36" t="s">
-        <v>464</v>
+      <c r="BJ36">
+        <v>1.227342069</v>
+      </c>
+      <c r="BK36">
+        <v>1.227342114</v>
+      </c>
+      <c r="BL36">
+        <v>1.227342153</v>
+      </c>
+      <c r="BM36">
+        <v>1.227342078</v>
       </c>
     </row>
     <row r="37" spans="1:65">
@@ -9114,8 +8439,8 @@
       <c r="BE37">
         <v>1000</v>
       </c>
-      <c r="BF37" t="s">
-        <v>269</v>
+      <c r="BF37">
+        <v>33182345</v>
       </c>
       <c r="BG37">
         <v>2020583</v>
@@ -9126,17 +8451,17 @@
       <c r="BI37">
         <v>58805</v>
       </c>
-      <c r="BJ37" t="s">
-        <v>318</v>
-      </c>
-      <c r="BK37" t="s">
-        <v>367</v>
-      </c>
-      <c r="BL37" t="s">
-        <v>416</v>
-      </c>
-      <c r="BM37" t="s">
-        <v>465</v>
+      <c r="BJ37">
+        <v>1.227430626</v>
+      </c>
+      <c r="BK37">
+        <v>1.227430671</v>
+      </c>
+      <c r="BL37">
+        <v>1.22743071</v>
+      </c>
+      <c r="BM37">
+        <v>1.227430635</v>
       </c>
     </row>
     <row r="38" spans="1:65">
@@ -9311,8 +8636,8 @@
       <c r="BE38">
         <v>1000</v>
       </c>
-      <c r="BF38" t="s">
-        <v>270</v>
+      <c r="BF38">
+        <v>33176684</v>
       </c>
       <c r="BG38">
         <v>2250328</v>
@@ -9323,17 +8648,17 @@
       <c r="BI38">
         <v>58805</v>
       </c>
-      <c r="BJ38" t="s">
-        <v>319</v>
-      </c>
-      <c r="BK38" t="s">
-        <v>368</v>
-      </c>
-      <c r="BL38" t="s">
-        <v>417</v>
-      </c>
-      <c r="BM38" t="s">
-        <v>466</v>
+      <c r="BJ38">
+        <v>1.227345746</v>
+      </c>
+      <c r="BK38">
+        <v>1.227345791</v>
+      </c>
+      <c r="BL38">
+        <v>1.22734583</v>
+      </c>
+      <c r="BM38">
+        <v>1.227345755</v>
       </c>
     </row>
     <row r="39" spans="1:65">
@@ -9508,8 +8833,8 @@
       <c r="BE39">
         <v>1000</v>
       </c>
-      <c r="BF39" t="s">
-        <v>271</v>
+      <c r="BF39">
+        <v>33184166</v>
       </c>
       <c r="BG39">
         <v>1270340</v>
@@ -9520,17 +8845,17 @@
       <c r="BI39">
         <v>58805</v>
       </c>
-      <c r="BJ39" t="s">
-        <v>320</v>
-      </c>
-      <c r="BK39" t="s">
-        <v>369</v>
-      </c>
-      <c r="BL39" t="s">
-        <v>418</v>
-      </c>
-      <c r="BM39" t="s">
-        <v>467</v>
+      <c r="BJ39">
+        <v>1.227456152</v>
+      </c>
+      <c r="BK39">
+        <v>1.227456197</v>
+      </c>
+      <c r="BL39">
+        <v>1.227456236</v>
+      </c>
+      <c r="BM39">
+        <v>1.227456161</v>
       </c>
     </row>
     <row r="40" spans="1:65">
@@ -9705,8 +9030,8 @@
       <c r="BE40">
         <v>1000</v>
       </c>
-      <c r="BF40" t="s">
-        <v>272</v>
+      <c r="BF40">
+        <v>33173882</v>
       </c>
       <c r="BG40">
         <v>269792</v>
@@ -9717,17 +9042,17 @@
       <c r="BI40">
         <v>58805</v>
       </c>
-      <c r="BJ40" t="s">
-        <v>321</v>
-      </c>
-      <c r="BK40" t="s">
-        <v>370</v>
-      </c>
-      <c r="BL40" t="s">
-        <v>419</v>
-      </c>
-      <c r="BM40" t="s">
-        <v>468</v>
+      <c r="BJ40">
+        <v>1.227289071</v>
+      </c>
+      <c r="BK40">
+        <v>1.227289116</v>
+      </c>
+      <c r="BL40">
+        <v>1.227289155</v>
+      </c>
+      <c r="BM40">
+        <v>1.22728908</v>
       </c>
     </row>
     <row r="41" spans="1:65">
@@ -9902,8 +9227,8 @@
       <c r="BE41">
         <v>1000</v>
       </c>
-      <c r="BF41" t="s">
-        <v>273</v>
+      <c r="BF41">
+        <v>33155729</v>
       </c>
       <c r="BG41">
         <v>215817</v>
@@ -9914,17 +9239,17 @@
       <c r="BI41">
         <v>58805</v>
       </c>
-      <c r="BJ41" t="s">
-        <v>322</v>
-      </c>
-      <c r="BK41" t="s">
-        <v>371</v>
-      </c>
-      <c r="BL41" t="s">
-        <v>420</v>
-      </c>
-      <c r="BM41" t="s">
-        <v>469</v>
+      <c r="BJ41">
+        <v>1.226953834</v>
+      </c>
+      <c r="BK41">
+        <v>1.226953818</v>
+      </c>
+      <c r="BL41">
+        <v>1.226953833</v>
+      </c>
+      <c r="BM41">
+        <v>1.226953843</v>
       </c>
     </row>
     <row r="42" spans="1:65">
@@ -10099,8 +9424,8 @@
       <c r="BE42">
         <v>1000</v>
       </c>
-      <c r="BF42" t="s">
-        <v>274</v>
+      <c r="BF42">
+        <v>33188270</v>
       </c>
       <c r="BG42">
         <v>3814</v>
@@ -10111,17 +9436,17 @@
       <c r="BI42">
         <v>58805</v>
       </c>
-      <c r="BJ42" t="s">
-        <v>323</v>
-      </c>
-      <c r="BK42" t="s">
-        <v>372</v>
-      </c>
-      <c r="BL42" t="s">
-        <v>421</v>
-      </c>
-      <c r="BM42" t="s">
-        <v>470</v>
+      <c r="BJ42">
+        <v>1.227522774</v>
+      </c>
+      <c r="BK42">
+        <v>1.227522819</v>
+      </c>
+      <c r="BL42">
+        <v>1.227522858</v>
+      </c>
+      <c r="BM42">
+        <v>1.227522783</v>
       </c>
     </row>
     <row r="43" spans="1:65">
@@ -10296,8 +9621,8 @@
       <c r="BE43">
         <v>1000</v>
       </c>
-      <c r="BF43" t="s">
-        <v>275</v>
+      <c r="BF43">
+        <v>33184213</v>
       </c>
       <c r="BG43">
         <v>20530702</v>
@@ -10308,17 +9633,17 @@
       <c r="BI43">
         <v>58805</v>
       </c>
-      <c r="BJ43" t="s">
-        <v>324</v>
-      </c>
-      <c r="BK43" t="s">
-        <v>373</v>
-      </c>
-      <c r="BL43" t="s">
-        <v>422</v>
-      </c>
-      <c r="BM43" t="s">
-        <v>471</v>
+      <c r="BJ43">
+        <v>1.227456657</v>
+      </c>
+      <c r="BK43">
+        <v>1.227456705</v>
+      </c>
+      <c r="BL43">
+        <v>1.227456744</v>
+      </c>
+      <c r="BM43">
+        <v>1.227456668</v>
       </c>
     </row>
     <row r="44" spans="1:65">
@@ -10493,8 +9818,8 @@
       <c r="BE44">
         <v>1000</v>
       </c>
-      <c r="BF44" t="s">
-        <v>276</v>
+      <c r="BF44">
+        <v>33184073</v>
       </c>
       <c r="BG44">
         <v>501219</v>
@@ -10505,17 +9830,17 @@
       <c r="BI44">
         <v>58805</v>
       </c>
-      <c r="BJ44" t="s">
-        <v>325</v>
-      </c>
-      <c r="BK44" t="s">
-        <v>374</v>
-      </c>
-      <c r="BL44" t="s">
-        <v>423</v>
-      </c>
-      <c r="BM44" t="s">
-        <v>472</v>
+      <c r="BJ44">
+        <v>1.2274529</v>
+      </c>
+      <c r="BK44">
+        <v>1.227452945</v>
+      </c>
+      <c r="BL44">
+        <v>1.227452984</v>
+      </c>
+      <c r="BM44">
+        <v>1.227452909</v>
       </c>
     </row>
     <row r="45" spans="1:65">
@@ -10690,8 +10015,8 @@
       <c r="BE45">
         <v>1000</v>
       </c>
-      <c r="BF45" t="s">
-        <v>277</v>
+      <c r="BF45">
+        <v>33183886</v>
       </c>
       <c r="BG45">
         <v>522048</v>
@@ -10702,17 +10027,17 @@
       <c r="BI45">
         <v>58805</v>
       </c>
-      <c r="BJ45" t="s">
-        <v>326</v>
-      </c>
-      <c r="BK45" t="s">
-        <v>375</v>
-      </c>
-      <c r="BL45" t="s">
-        <v>424</v>
-      </c>
-      <c r="BM45" t="s">
-        <v>473</v>
+      <c r="BJ45">
+        <v>1.22745299</v>
+      </c>
+      <c r="BK45">
+        <v>1.227453035</v>
+      </c>
+      <c r="BL45">
+        <v>1.227453074</v>
+      </c>
+      <c r="BM45">
+        <v>1.227452999</v>
       </c>
     </row>
     <row r="46" spans="1:65">
@@ -10887,8 +10212,8 @@
       <c r="BE46">
         <v>980</v>
       </c>
-      <c r="BF46" t="s">
-        <v>278</v>
+      <c r="BF46">
+        <v>33190459</v>
       </c>
       <c r="BG46">
         <v>18571</v>
@@ -10899,17 +10224,17 @@
       <c r="BI46">
         <v>58805</v>
       </c>
-      <c r="BJ46" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK46" t="s">
-        <v>376</v>
-      </c>
-      <c r="BL46" t="s">
-        <v>425</v>
-      </c>
-      <c r="BM46" t="s">
-        <v>474</v>
+      <c r="BJ46">
+        <v>1.227563488</v>
+      </c>
+      <c r="BK46">
+        <v>1.227563533</v>
+      </c>
+      <c r="BL46">
+        <v>1.227563572</v>
+      </c>
+      <c r="BM46">
+        <v>1.227563497</v>
       </c>
     </row>
     <row r="47" spans="1:65">
@@ -11084,8 +10409,8 @@
       <c r="BE47">
         <v>1000</v>
       </c>
-      <c r="BF47" t="s">
-        <v>279</v>
+      <c r="BF47">
+        <v>33119450</v>
       </c>
       <c r="BG47">
         <v>10543</v>
@@ -11096,17 +10421,17 @@
       <c r="BI47">
         <v>58805</v>
       </c>
-      <c r="BJ47" t="s">
-        <v>328</v>
-      </c>
-      <c r="BK47" t="s">
-        <v>377</v>
-      </c>
-      <c r="BL47" t="s">
-        <v>426</v>
-      </c>
-      <c r="BM47" t="s">
-        <v>475</v>
+      <c r="BJ47">
+        <v>1.226338046</v>
+      </c>
+      <c r="BK47">
+        <v>1.22633803</v>
+      </c>
+      <c r="BL47">
+        <v>1.226338045</v>
+      </c>
+      <c r="BM47">
+        <v>1.226338055</v>
       </c>
     </row>
     <row r="48" spans="1:65">
@@ -11281,8 +10606,8 @@
       <c r="BE48">
         <v>280</v>
       </c>
-      <c r="BF48" t="s">
-        <v>280</v>
+      <c r="BF48">
+        <v>33165620</v>
       </c>
       <c r="BG48">
         <v>55190</v>
@@ -11293,17 +10618,17 @@
       <c r="BI48">
         <v>58805</v>
       </c>
-      <c r="BJ48" t="s">
-        <v>329</v>
-      </c>
-      <c r="BK48" t="s">
-        <v>378</v>
-      </c>
-      <c r="BL48" t="s">
-        <v>427</v>
-      </c>
-      <c r="BM48" t="s">
-        <v>476</v>
+      <c r="BJ48">
+        <v>1.227123926</v>
+      </c>
+      <c r="BK48">
+        <v>1.227123865</v>
+      </c>
+      <c r="BL48">
+        <v>1.227123925</v>
+      </c>
+      <c r="BM48">
+        <v>1.227123936</v>
       </c>
     </row>
     <row r="49" spans="1:65">
@@ -11478,8 +10803,8 @@
       <c r="BE49">
         <v>1000</v>
       </c>
-      <c r="BF49" t="s">
-        <v>281</v>
+      <c r="BF49">
+        <v>33173862</v>
       </c>
       <c r="BG49">
         <v>1358404</v>
@@ -11490,17 +10815,17 @@
       <c r="BI49">
         <v>58805</v>
       </c>
-      <c r="BJ49" t="s">
-        <v>330</v>
-      </c>
-      <c r="BK49" t="s">
-        <v>379</v>
-      </c>
-      <c r="BL49" t="s">
-        <v>428</v>
-      </c>
-      <c r="BM49" t="s">
-        <v>477</v>
+      <c r="BJ49">
+        <v>1.227288678</v>
+      </c>
+      <c r="BK49">
+        <v>1.227288688</v>
+      </c>
+      <c r="BL49">
+        <v>1.227288677</v>
+      </c>
+      <c r="BM49">
+        <v>1.227288687</v>
       </c>
     </row>
     <row r="50" spans="1:65">
@@ -11675,8 +11000,8 @@
       <c r="BE50">
         <v>1000</v>
       </c>
-      <c r="BF50" t="s">
-        <v>282</v>
+      <c r="BF50">
+        <v>33177139</v>
       </c>
       <c r="BG50">
         <v>7028659</v>
@@ -11687,17 +11012,17 @@
       <c r="BI50">
         <v>58805</v>
       </c>
-      <c r="BJ50" t="s">
-        <v>331</v>
-      </c>
-      <c r="BK50" t="s">
-        <v>380</v>
-      </c>
-      <c r="BL50" t="s">
-        <v>429</v>
-      </c>
-      <c r="BM50" t="s">
-        <v>478</v>
+      <c r="BJ50">
+        <v>1.227351296</v>
+      </c>
+      <c r="BK50">
+        <v>1.227351341</v>
+      </c>
+      <c r="BL50">
+        <v>1.22735138</v>
+      </c>
+      <c r="BM50">
+        <v>1.227351305</v>
       </c>
     </row>
     <row r="51" spans="1:65">
@@ -11872,8 +11197,8 @@
       <c r="BE51">
         <v>1000</v>
       </c>
-      <c r="BF51" t="s">
-        <v>283</v>
+      <c r="BF51">
+        <v>33177173</v>
       </c>
       <c r="BG51">
         <v>2794560</v>
@@ -11884,17 +11209,17 @@
       <c r="BI51">
         <v>58805</v>
       </c>
-      <c r="BJ51" t="s">
-        <v>332</v>
-      </c>
-      <c r="BK51" t="s">
-        <v>381</v>
-      </c>
-      <c r="BL51" t="s">
-        <v>430</v>
-      </c>
-      <c r="BM51" t="s">
-        <v>479</v>
+      <c r="BJ51">
+        <v>1.227351386</v>
+      </c>
+      <c r="BK51">
+        <v>1.227351431</v>
+      </c>
+      <c r="BL51">
+        <v>1.22735147</v>
+      </c>
+      <c r="BM51">
+        <v>1.227351395</v>
       </c>
     </row>
     <row r="52" spans="1:65">
@@ -12069,8 +11394,8 @@
       <c r="BE52">
         <v>1000</v>
       </c>
-      <c r="BF52" t="s">
-        <v>284</v>
+      <c r="BF52">
+        <v>33177143</v>
       </c>
       <c r="BG52">
         <v>5129865</v>
@@ -12081,17 +11406,17 @@
       <c r="BI52">
         <v>58805</v>
       </c>
-      <c r="BJ52" t="s">
-        <v>333</v>
-      </c>
-      <c r="BK52" t="s">
-        <v>382</v>
-      </c>
-      <c r="BL52" t="s">
-        <v>431</v>
-      </c>
-      <c r="BM52" t="s">
-        <v>480</v>
+      <c r="BJ52">
+        <v>1.227351476</v>
+      </c>
+      <c r="BK52">
+        <v>1.227351521</v>
+      </c>
+      <c r="BL52">
+        <v>1.22735156</v>
+      </c>
+      <c r="BM52">
+        <v>1.227351485</v>
       </c>
     </row>
     <row r="53" spans="1:65">
@@ -12266,8 +11591,8 @@
       <c r="BE53">
         <v>1000</v>
       </c>
-      <c r="BF53" t="s">
-        <v>285</v>
+      <c r="BF53">
+        <v>33177355</v>
       </c>
       <c r="BG53">
         <v>8015153</v>
@@ -12278,17 +11603,17 @@
       <c r="BI53">
         <v>58805</v>
       </c>
-      <c r="BJ53" t="s">
-        <v>334</v>
-      </c>
-      <c r="BK53" t="s">
-        <v>383</v>
-      </c>
-      <c r="BL53" t="s">
-        <v>432</v>
-      </c>
-      <c r="BM53" t="s">
-        <v>481</v>
+      <c r="BJ53">
+        <v>1.227352758</v>
+      </c>
+      <c r="BK53">
+        <v>1.227352803</v>
+      </c>
+      <c r="BL53">
+        <v>1.227352842</v>
+      </c>
+      <c r="BM53">
+        <v>1.227352767</v>
       </c>
     </row>
     <row r="54" spans="1:65">
@@ -12463,8 +11788,8 @@
       <c r="BE54">
         <v>1000</v>
       </c>
-      <c r="BF54" t="s">
-        <v>286</v>
+      <c r="BF54">
+        <v>33177375</v>
       </c>
       <c r="BG54">
         <v>5333044</v>
@@ -12475,17 +11800,17 @@
       <c r="BI54">
         <v>58805</v>
       </c>
-      <c r="BJ54" t="s">
-        <v>335</v>
-      </c>
-      <c r="BK54" t="s">
-        <v>384</v>
-      </c>
-      <c r="BL54" t="s">
-        <v>433</v>
-      </c>
-      <c r="BM54" t="s">
-        <v>482</v>
+      <c r="BJ54">
+        <v>1.227352978</v>
+      </c>
+      <c r="BK54">
+        <v>1.227353023</v>
+      </c>
+      <c r="BL54">
+        <v>1.227353062</v>
+      </c>
+      <c r="BM54">
+        <v>1.227352987</v>
       </c>
     </row>
     <row r="55" spans="1:65">
@@ -12660,8 +11985,8 @@
       <c r="BE55">
         <v>1000</v>
       </c>
-      <c r="BF55" t="s">
-        <v>287</v>
+      <c r="BF55">
+        <v>33177377</v>
       </c>
       <c r="BG55">
         <v>897267</v>
@@ -12672,17 +11997,17 @@
       <c r="BI55">
         <v>58805</v>
       </c>
-      <c r="BJ55" t="s">
-        <v>336</v>
-      </c>
-      <c r="BK55" t="s">
-        <v>385</v>
-      </c>
-      <c r="BL55" t="s">
-        <v>434</v>
-      </c>
-      <c r="BM55" t="s">
-        <v>483</v>
+      <c r="BJ55">
+        <v>1.227354435</v>
+      </c>
+      <c r="BK55">
+        <v>1.22735448</v>
+      </c>
+      <c r="BL55">
+        <v>1.227354519</v>
+      </c>
+      <c r="BM55">
+        <v>1.227354444</v>
       </c>
     </row>
     <row r="56" spans="1:65">
@@ -12857,8 +12182,8 @@
       <c r="BE56">
         <v>1000</v>
       </c>
-      <c r="BF56" t="s">
-        <v>288</v>
+      <c r="BF56">
+        <v>33177349</v>
       </c>
       <c r="BG56">
         <v>453739</v>
@@ -12869,17 +12194,17 @@
       <c r="BI56">
         <v>58805</v>
       </c>
-      <c r="BJ56" t="s">
-        <v>337</v>
-      </c>
-      <c r="BK56" t="s">
-        <v>386</v>
-      </c>
-      <c r="BL56" t="s">
-        <v>435</v>
-      </c>
-      <c r="BM56" t="s">
-        <v>484</v>
+      <c r="BJ56">
+        <v>1.227352848</v>
+      </c>
+      <c r="BK56">
+        <v>1.227352893</v>
+      </c>
+      <c r="BL56">
+        <v>1.227352932</v>
+      </c>
+      <c r="BM56">
+        <v>1.227352857</v>
       </c>
     </row>
     <row r="57" spans="1:65">
@@ -13054,8 +12379,8 @@
       <c r="BE57">
         <v>1000</v>
       </c>
-      <c r="BF57" t="s">
-        <v>289</v>
+      <c r="BF57">
+        <v>33185444</v>
       </c>
       <c r="BG57">
         <v>13442344</v>
@@ -13066,17 +12391,17 @@
       <c r="BI57">
         <v>58805</v>
       </c>
-      <c r="BJ57" t="s">
-        <v>338</v>
-      </c>
-      <c r="BK57" t="s">
-        <v>387</v>
-      </c>
-      <c r="BL57" t="s">
-        <v>436</v>
-      </c>
-      <c r="BM57" t="s">
-        <v>485</v>
+      <c r="BJ57">
+        <v>1.227477194</v>
+      </c>
+      <c r="BK57">
+        <v>1.227477239</v>
+      </c>
+      <c r="BL57">
+        <v>1.227477278</v>
+      </c>
+      <c r="BM57">
+        <v>1.227477203</v>
       </c>
     </row>
     <row r="58" spans="1:65">
@@ -13448,8 +12773,8 @@
       <c r="BE59">
         <v>1000</v>
       </c>
-      <c r="BF59" t="s">
-        <v>290</v>
+      <c r="BF59">
+        <v>33192261</v>
       </c>
       <c r="BG59">
         <v>38758295</v>
@@ -13460,17 +12785,17 @@
       <c r="BI59">
         <v>58805</v>
       </c>
-      <c r="BJ59" t="s">
-        <v>339</v>
-      </c>
-      <c r="BK59" t="s">
-        <v>388</v>
-      </c>
-      <c r="BL59" t="s">
-        <v>437</v>
-      </c>
-      <c r="BM59" t="s">
-        <v>486</v>
+      <c r="BJ59">
+        <v>1.227596225</v>
+      </c>
+      <c r="BK59">
+        <v>1.227596228</v>
+      </c>
+      <c r="BL59">
+        <v>1.227596272</v>
+      </c>
+      <c r="BM59">
+        <v>1.227596273</v>
       </c>
     </row>
     <row r="60" spans="1:65">
@@ -13490,52 +12815,52 @@
         <v>242</v>
       </c>
       <c r="F60">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="G60">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="H60">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="I60">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="J60">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K60">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L60">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="M60">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="N60">
         <v>2.32</v>
       </c>
       <c r="O60">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="P60">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q60">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="R60">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S60">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="T60">
         <v>9.199999999999999</v>
       </c>
       <c r="U60">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V60">
         <v>5.7</v>
@@ -13544,109 +12869,109 @@
         <v>7</v>
       </c>
       <c r="X60">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Y60">
         <v>980</v>
       </c>
       <c r="Z60">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="AA60">
         <v>980</v>
       </c>
       <c r="AB60">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AC60">
         <v>980</v>
       </c>
       <c r="AD60">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AE60">
         <v>980</v>
       </c>
       <c r="AF60">
-        <v>9.199999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="AG60">
         <v>13</v>
       </c>
       <c r="AH60">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="AI60">
         <v>980</v>
       </c>
       <c r="AJ60">
+        <v>5.4</v>
+      </c>
+      <c r="AK60">
+        <v>980</v>
+      </c>
+      <c r="AL60">
         <v>5</v>
       </c>
-      <c r="AK60">
-        <v>980</v>
-      </c>
-      <c r="AL60">
-        <v>4.8</v>
-      </c>
       <c r="AM60">
         <v>980</v>
       </c>
       <c r="AN60">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="AO60">
         <v>980</v>
       </c>
       <c r="AP60">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="AQ60">
         <v>980</v>
       </c>
       <c r="AR60">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AS60">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT60">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AU60">
         <v>980</v>
       </c>
       <c r="AV60">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AW60">
         <v>980</v>
       </c>
       <c r="AX60">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AY60">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ60">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="BA60">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB60">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="BC60">
         <v>980</v>
       </c>
       <c r="BD60">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="BE60">
         <v>1000</v>
       </c>
       <c r="BF60" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="BG60">
         <v>5300627</v>
@@ -13658,16 +12983,16 @@
         <v>58805</v>
       </c>
       <c r="BJ60" t="s">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="BK60" t="s">
-        <v>389</v>
+        <v>254</v>
       </c>
       <c r="BL60" t="s">
-        <v>438</v>
+        <v>258</v>
       </c>
       <c r="BM60" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:65">
@@ -13687,73 +13012,73 @@
         <v>243</v>
       </c>
       <c r="F61">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G61">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H61">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I61">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="J61">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="K61">
         <v>6.2</v>
       </c>
       <c r="L61">
+        <v>2.26</v>
+      </c>
+      <c r="M61">
+        <v>2.34</v>
+      </c>
+      <c r="N61">
+        <v>1.75</v>
+      </c>
+      <c r="O61">
+        <v>1.8</v>
+      </c>
+      <c r="P61">
         <v>2.22</v>
       </c>
-      <c r="M61">
+      <c r="Q61">
         <v>2.44</v>
       </c>
-      <c r="N61">
-        <v>1.7</v>
-      </c>
-      <c r="O61">
-        <v>1.82</v>
-      </c>
-      <c r="P61">
-        <v>2.18</v>
-      </c>
-      <c r="Q61">
-        <v>2.42</v>
-      </c>
       <c r="R61">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="T61">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="U61">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V61">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="W61">
         <v>980</v>
       </c>
       <c r="X61">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y61">
         <v>980</v>
       </c>
       <c r="Z61">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AA61">
         <v>1000</v>
       </c>
       <c r="AB61">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC61">
         <v>8.800000000000001</v>
@@ -13762,16 +13087,16 @@
         <v>11.5</v>
       </c>
       <c r="AE61">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF61">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AG61">
         <v>980</v>
       </c>
       <c r="AH61">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AI61">
         <v>980</v>
@@ -13780,34 +13105,34 @@
         <v>6.8</v>
       </c>
       <c r="AK61">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AL61">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AM61">
         <v>11.5</v>
       </c>
       <c r="AN61">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AO61">
         <v>980</v>
       </c>
       <c r="AP61">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AQ61">
         <v>980</v>
       </c>
       <c r="AR61">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AS61">
         <v>10.5</v>
       </c>
       <c r="AT61">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AU61">
         <v>16.5</v>
@@ -13819,31 +13144,31 @@
         <v>980</v>
       </c>
       <c r="AX61">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AY61">
         <v>980</v>
       </c>
       <c r="AZ61">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="BA61">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="BB61">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="BC61">
         <v>1000</v>
       </c>
       <c r="BD61">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BE61">
         <v>1000</v>
       </c>
       <c r="BF61" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="BG61">
         <v>474678</v>
@@ -13855,16 +13180,16 @@
         <v>58805</v>
       </c>
       <c r="BJ61" t="s">
-        <v>341</v>
+        <v>251</v>
       </c>
       <c r="BK61" t="s">
-        <v>390</v>
+        <v>255</v>
       </c>
       <c r="BL61" t="s">
-        <v>439</v>
+        <v>259</v>
       </c>
       <c r="BM61" t="s">
-        <v>488</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:65">
@@ -13884,22 +13209,22 @@
         <v>244</v>
       </c>
       <c r="F62">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="G62">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="H62">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="I62">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="J62">
         <v>5.1</v>
       </c>
       <c r="K62">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L62">
         <v>2.24</v>
@@ -13914,16 +13239,16 @@
         <v>1.81</v>
       </c>
       <c r="P62">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q62">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R62">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="S62">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T62">
         <v>17</v>
@@ -13932,19 +13257,19 @@
         <v>24</v>
       </c>
       <c r="V62">
-        <v>4.6</v>
+        <v>26</v>
       </c>
       <c r="W62">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X62">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="Y62">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="Z62">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="AA62">
         <v>980</v>
@@ -13959,16 +13284,16 @@
         <v>10.5</v>
       </c>
       <c r="AE62">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF62">
-        <v>28</v>
+        <v>5.2</v>
       </c>
       <c r="AG62">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AH62">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AI62">
         <v>980</v>
@@ -13992,16 +13317,16 @@
         <v>34</v>
       </c>
       <c r="AP62">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="AQ62">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AR62">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AS62">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AT62">
         <v>13</v>
@@ -14010,37 +13335,37 @@
         <v>18</v>
       </c>
       <c r="AV62">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="AW62">
         <v>44</v>
       </c>
       <c r="AX62">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AY62">
         <v>980</v>
       </c>
       <c r="AZ62">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="BA62">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="BB62">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="BC62">
         <v>980</v>
       </c>
       <c r="BD62">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="BE62">
         <v>1000</v>
       </c>
       <c r="BF62" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="BG62">
         <v>330239</v>
@@ -14052,16 +13377,16 @@
         <v>58805</v>
       </c>
       <c r="BJ62" t="s">
-        <v>342</v>
+        <v>252</v>
       </c>
       <c r="BK62" t="s">
-        <v>391</v>
+        <v>256</v>
       </c>
       <c r="BL62" t="s">
-        <v>440</v>
+        <v>260</v>
       </c>
       <c r="BM62" t="s">
-        <v>489</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:65">
@@ -14090,13 +13415,13 @@
         <v>2.48</v>
       </c>
       <c r="I63">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J63">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K63">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L63">
         <v>1.92</v>
@@ -14111,7 +13436,7 @@
         <v>2.08</v>
       </c>
       <c r="P63">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Q63">
         <v>1.87</v>
@@ -14120,28 +13445,28 @@
         <v>2.16</v>
       </c>
       <c r="S63">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="T63">
-        <v>5.6</v>
+        <v>11.5</v>
       </c>
       <c r="U63">
         <v>980</v>
       </c>
       <c r="V63">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="W63">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="X63">
-        <v>5.8</v>
+        <v>13.5</v>
       </c>
       <c r="Y63">
         <v>980</v>
       </c>
       <c r="Z63">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AA63">
         <v>980</v>
@@ -14150,94 +13475,94 @@
         <v>10.5</v>
       </c>
       <c r="AC63">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AD63">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AE63">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AF63">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG63">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AH63">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AI63">
         <v>980</v>
       </c>
       <c r="AJ63">
+        <v>5.7</v>
+      </c>
+      <c r="AK63">
+        <v>980</v>
+      </c>
+      <c r="AL63">
+        <v>5.4</v>
+      </c>
+      <c r="AM63">
+        <v>980</v>
+      </c>
+      <c r="AN63">
+        <v>5.6</v>
+      </c>
+      <c r="AO63">
+        <v>980</v>
+      </c>
+      <c r="AP63">
+        <v>6.6</v>
+      </c>
+      <c r="AQ63">
+        <v>980</v>
+      </c>
+      <c r="AR63">
+        <v>6.6</v>
+      </c>
+      <c r="AS63">
+        <v>980</v>
+      </c>
+      <c r="AT63">
         <v>6.2</v>
       </c>
-      <c r="AK63">
-        <v>980</v>
-      </c>
-      <c r="AL63">
-        <v>5.5</v>
-      </c>
-      <c r="AM63">
-        <v>980</v>
-      </c>
-      <c r="AN63">
+      <c r="AU63">
+        <v>980</v>
+      </c>
+      <c r="AV63">
+        <v>6.6</v>
+      </c>
+      <c r="AW63">
+        <v>980</v>
+      </c>
+      <c r="AX63">
+        <v>7.2</v>
+      </c>
+      <c r="AY63">
+        <v>980</v>
+      </c>
+      <c r="AZ63">
         <v>6</v>
       </c>
-      <c r="AO63">
-        <v>980</v>
-      </c>
-      <c r="AP63">
-        <v>6.8</v>
-      </c>
-      <c r="AQ63">
-        <v>980</v>
-      </c>
-      <c r="AR63">
-        <v>7</v>
-      </c>
-      <c r="AS63">
-        <v>980</v>
-      </c>
-      <c r="AT63">
-        <v>6.6</v>
-      </c>
-      <c r="AU63">
-        <v>980</v>
-      </c>
-      <c r="AV63">
-        <v>6.8</v>
-      </c>
-      <c r="AW63">
-        <v>980</v>
-      </c>
-      <c r="AX63">
-        <v>7.4</v>
-      </c>
-      <c r="AY63">
-        <v>980</v>
-      </c>
-      <c r="AZ63">
-        <v>6.4</v>
-      </c>
       <c r="BA63">
         <v>980</v>
       </c>
       <c r="BB63">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="BC63">
         <v>980</v>
       </c>
       <c r="BD63">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="BE63">
         <v>1000</v>
       </c>
       <c r="BF63" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="BG63">
         <v>12104874</v>
@@ -14249,16 +13574,16 @@
         <v>58805</v>
       </c>
       <c r="BJ63" t="s">
-        <v>343</v>
+        <v>253</v>
       </c>
       <c r="BK63" t="s">
-        <v>392</v>
+        <v>257</v>
       </c>
       <c r="BL63" t="s">
-        <v>441</v>
+        <v>261</v>
       </c>
       <c r="BM63" t="s">
-        <v>490</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
